--- a/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-1.378855424556871</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-5.005878016943694</v>
+        <v>-5.005878016943696</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.148855232220683</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9213801189835465</v>
+        <v>1.272936019858211</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.471091837931402</v>
+        <v>-7.84116992633706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.5394394879184</v>
+        <v>-12.30380877659773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.487672566879558</v>
+        <v>-2.082222882320516</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.00149376821015</v>
+        <v>-8.088497075531849</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.26538466304063</v>
+        <v>-11.7178836180337</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.500945166767869</v>
+        <v>1.882131418864871</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.99128687341677</v>
+        <v>-6.493462056192299</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-9.793884885658089</v>
+        <v>-9.506082450830329</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.24113909194651</v>
+        <v>17.31419137692107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.164374362182095</v>
+        <v>7.713153407811121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.617882025754307</v>
+        <v>1.84282569702806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.05628016395253</v>
+        <v>12.25184658448153</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.407724709679856</v>
+        <v>6.038200728176855</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.01390505195441774</v>
+        <v>0.3665215694474924</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.74062571647917</v>
+        <v>12.68534434313383</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.580277632245192</v>
+        <v>4.662977858417115</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6542083330256134</v>
+        <v>-0.2099011871723218</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.08924367688466432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3239955054836434</v>
+        <v>-0.3239955054836435</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4002676840871246</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01946730153838502</v>
+        <v>0.03687076411834486</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3500558161067153</v>
+        <v>-0.3173558316510283</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4839629214887815</v>
+        <v>-0.4949281446022315</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1346820211399235</v>
+        <v>-0.1204830469096708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4371940264851391</v>
+        <v>-0.4227075435013482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.548701071288242</v>
+        <v>-0.5667631757399988</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06414376222463937</v>
+        <v>0.09270031792413871</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2862800500784768</v>
+        <v>-0.3021991502467977</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4661083069166443</v>
+        <v>-0.4554003950053865</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.048397045193827</v>
+        <v>1.015759182148042</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.429845470276122</v>
+        <v>0.4652794006479292</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1120430856233826</v>
+        <v>0.1055560326584589</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.075440775833815</v>
+        <v>1.045104359063164</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4425940744341431</v>
+        <v>0.5430025611723672</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03762657683599356</v>
+        <v>0.03968050859630967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.820068395097751</v>
+        <v>0.8308121646478778</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3148097037682719</v>
+        <v>0.2919746430281707</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.04267722959752189</v>
+        <v>-0.01050572353200123</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.361803084621191</v>
+        <v>-2.126601129611177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.12436587194759</v>
+        <v>-10.99939646334627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.50362924390642</v>
+        <v>-21.12889654800416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.135886394338709</v>
+        <v>-6.880406993845297</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.85074277115265</v>
+        <v>-11.98793334429414</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.95389386358113</v>
+        <v>-16.27121840368185</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.829452201850354</v>
+        <v>-2.503047259697176</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.88099472810342</v>
+        <v>-9.875132389448297</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-17.09907848763069</v>
+        <v>-16.93417153437501</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.53562828784275</v>
+        <v>10.28175375152271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9671006110411038</v>
+        <v>0.8545938601759605</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-11.29775287004433</v>
+        <v>-10.59431077196583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.004598101180724</v>
+        <v>3.348025906207668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.946752936278607</v>
+        <v>-1.511715626144853</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-7.509217383815306</v>
+        <v>-7.440658031118824</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.674426035641196</v>
+        <v>5.514026233380767</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.891674284577952</v>
+        <v>-2.040372763236699</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-10.49163717841876</v>
+        <v>-10.30506320983304</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3377289777450362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.5939587474358805</v>
+        <v>-0.5939587474358807</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05546603377632249</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09333369066900768</v>
+        <v>-0.07517318600135442</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4178815530450251</v>
+        <v>-0.4145691766494321</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7868019584993398</v>
+        <v>-0.7812697361448645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.315201598741617</v>
+        <v>-0.3156233543774768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5261450230121436</v>
+        <v>-0.5231975575192152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.70305359100436</v>
+        <v>-0.7002456844211402</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1217627843633979</v>
+        <v>-0.1104411710079889</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4222870517744015</v>
+        <v>-0.4141367836982586</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7226066816707569</v>
+        <v>-0.7187139856800935</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5041519797837398</v>
+        <v>0.5020184676241856</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.056204792632593</v>
+        <v>0.03053224958567331</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5159568033923235</v>
+        <v>-0.497057205587275</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1900942811067173</v>
+        <v>0.1955477809510154</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.09971234028806164</v>
+        <v>-0.06716007811519478</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4441132903611557</v>
+        <v>-0.4374947412673758</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2942943572011137</v>
+        <v>0.2765173936285841</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09523844995118139</v>
+        <v>-0.1007148221674452</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5376662045920365</v>
+        <v>-0.5221950462822621</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.454842333078679</v>
+        <v>-1.096989573517383</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.14078334150438</v>
+        <v>-16.39262733630884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.503110241476634</v>
+        <v>-8.696296274632946</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.028362234178753</v>
+        <v>1.994817043008133</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.839914024315185</v>
+        <v>-8.905656896065658</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.11221168530872</v>
+        <v>-1.193051349685953</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.372262950759973</v>
+        <v>2.107067891858347</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.78141952047268</v>
+        <v>-10.85422570302689</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.473123847614</v>
+        <v>-3.177602551036498</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.51415144056956</v>
+        <v>14.3625028583943</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.088976613133769</v>
+        <v>-3.85908268888809</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.562725295755325</v>
+        <v>4.921594981710196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.14626436479867</v>
+        <v>13.43453497833277</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.128896879532992</v>
+        <v>0.487999565734775</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.260937045318546</v>
+        <v>8.6623175868268</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.12342035178889</v>
+        <v>11.61677308023608</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.737598374219299</v>
+        <v>-3.141942464847268</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.604008453177682</v>
+        <v>4.840011297522896</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05309952074038756</v>
+        <v>-0.04984487903926602</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6606611477883193</v>
+        <v>-0.6519149687779063</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3253283224375302</v>
+        <v>-0.3332877687242569</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03760554386947232</v>
+        <v>0.1260808078018342</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.58637698046599</v>
+        <v>-0.592743366998171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08263150927650796</v>
+        <v>-0.07703292370560001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1133436121169835</v>
+        <v>0.1080269577667801</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5751199048390786</v>
+        <v>-0.5760098328626124</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1350704577773856</v>
+        <v>-0.1634445995432647</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8087197941915646</v>
+        <v>0.8276277084875338</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2230659460088595</v>
+        <v>-0.2172329429918362</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3301556808312836</v>
+        <v>0.2927357557252079</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.280910711675925</v>
+        <v>1.350090554651658</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1553935521011675</v>
+        <v>0.07136527899589909</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8348654944625429</v>
+        <v>0.8997549877202594</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8319448509817903</v>
+        <v>0.8264606448366091</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2052170881351763</v>
+        <v>-0.2149390005667017</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3934162468435695</v>
+        <v>0.3407539658384476</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.745240071277655</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.173656980790351</v>
+        <v>-1.173656980790352</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.617732543065937</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.793752975584406</v>
+        <v>5.647348665298543</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7190339935589037</v>
+        <v>0.6994344359411572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.732497914769406</v>
+        <v>-4.958216361402492</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8096201632226789</v>
+        <v>1.274123134402443</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.975884271859395</v>
+        <v>-3.916091708819774</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.223773806658365</v>
+        <v>-5.901512577073331</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.635389037412135</v>
+        <v>5.272873006697589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1454246989615319</v>
+        <v>0.2923463077599168</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.022008810811403</v>
+        <v>-3.828696386088573</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.32912853196713</v>
+        <v>18.95642542471211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.46377107066311</v>
+        <v>13.59028234740073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.907843086730967</v>
+        <v>7.337202160952964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.22239393886746</v>
+        <v>12.45533520184288</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.069264968266065</v>
+        <v>6.744665610794912</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.923600233881522</v>
+        <v>2.828802074066304</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.11301334714406</v>
+        <v>13.78316746503885</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.260065506488489</v>
+        <v>8.271014631251164</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.827015606674392</v>
+        <v>3.688600836519631</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1515174809413938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1018940328870918</v>
+        <v>-0.1018940328870919</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7088995221223965</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3157290299191062</v>
+        <v>0.2921093285464493</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03935354575007498</v>
+        <v>0.02507241816618925</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2527755030734441</v>
+        <v>-0.2925949387076423</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04931562164184773</v>
+        <v>0.09078596670661032</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2167180011171686</v>
+        <v>-0.2734160311305593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4106369845901523</v>
+        <v>-0.4062619654053974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2825823045559833</v>
+        <v>0.3491012611618278</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01133454710370314</v>
+        <v>0.02997820885612022</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2512816636994796</v>
+        <v>-0.2533306650013603</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.528374967279655</v>
+        <v>1.46658086091612</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.040441522216782</v>
+        <v>1.03163418826758</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.701812504426481</v>
+        <v>0.5391834837288664</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.357478797299834</v>
+        <v>1.411640274453095</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8029335912884901</v>
+        <v>0.7742278589078974</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3417025799863653</v>
+        <v>0.3186561284446104</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.209934614383831</v>
+        <v>1.194087968369742</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.716810474752573</v>
+        <v>0.7451527525114375</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3398711211326959</v>
+        <v>0.3203203384367941</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-1.979400985154023</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.506067671442878</v>
+        <v>-0.5060676714428836</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.153731910053188</v>
+        <v>-1.101201009145078</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.41561096162742</v>
+        <v>-13.62481622057445</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.449167293316237</v>
+        <v>-6.372705831666484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.044684810903703</v>
+        <v>-1.008214476075529</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.206334131048246</v>
+        <v>-7.802628527841748</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.44063572681771</v>
+        <v>-8.357065643235899</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.342846980560089</v>
+        <v>0.6093449992099155</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.827909616097234</v>
+        <v>-8.451133015571314</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.566882871487993</v>
+        <v>-5.382794605705693</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.86905198777512</v>
+        <v>17.99766544231403</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.798472405351154</v>
+        <v>4.991319237547033</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.896652338750537</v>
+        <v>9.346709977137239</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.3889251381716</v>
+        <v>15.76142380840891</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.171282879579122</v>
+        <v>8.659647497829422</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.561229651178598</v>
+        <v>4.39978496617276</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.59586766592276</v>
+        <v>13.47126577724719</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.614897396953344</v>
+        <v>3.707419295975123</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.295866374368469</v>
+        <v>4.614966171924126</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.1086281809414132</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.02777264990489988</v>
+        <v>-0.02777264990490019</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08566878323289658</v>
+        <v>-0.05078319896174018</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.534311289278056</v>
+        <v>-0.5516583115358462</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2787981871809229</v>
+        <v>-0.2524931622497829</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05343866061276573</v>
+        <v>-0.08267294570287978</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4140489170539733</v>
+        <v>-0.4171948092080413</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4161577110219966</v>
+        <v>-0.405443600564258</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02888443701101557</v>
+        <v>0.03136446517119557</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3594741049699706</v>
+        <v>-0.4035631612971598</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2623556196339758</v>
+        <v>-0.2473195719109408</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.950877621505242</v>
+        <v>1.036903209487444</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2923951164822169</v>
+        <v>0.2784434876951154</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5219259456416938</v>
+        <v>0.5684981414553237</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.373338376848571</v>
+        <v>1.44927221461034</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8280820065518317</v>
+        <v>0.7936437943000493</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4251854247824089</v>
+        <v>0.4279520555276843</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9104983256359925</v>
+        <v>0.9175444686148511</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3188162154325496</v>
+        <v>0.2525079924770726</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2961545760638219</v>
+        <v>0.3229613193184167</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>9.982553661907852</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.924494631483141</v>
+        <v>9.924494631483146</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>14.88983353567293</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>8.871437491985816</v>
+        <v>8.684224805627057</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4.302354271998753</v>
+        <v>5.323064263386001</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.87672498401148</v>
+        <v>-2.750193457388276</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.901033515677377</v>
+        <v>6.679836677709723</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.708911603964717</v>
+        <v>3.224549946182985</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.956074308105926</v>
+        <v>4.448312411954618</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>9.777618643574026</v>
+        <v>9.742841538985015</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>5.843076327657906</v>
+        <v>6.066017749412481</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.731966960811427</v>
+        <v>2.762451057408925</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>25.00349982769343</v>
+        <v>24.78321491428206</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>20.00032201403304</v>
+        <v>20.99564502094199</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.56777268960453</v>
+        <v>10.48445136576714</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19.83125109086033</v>
+        <v>20.11809918237617</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>16.55287504771015</v>
+        <v>17.18356050232801</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.11155022086536</v>
+        <v>15.60272676267333</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>20.0647763934657</v>
+        <v>19.91360011001608</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>16.65383795939596</v>
+        <v>16.42324391772055</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>11.33193367907471</v>
+        <v>11.61725842779358</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.9721721209633875</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9665179193772291</v>
+        <v>0.9665179193772296</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.156672778526381</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4089027586024659</v>
+        <v>0.4294101238300627</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2127310325964994</v>
+        <v>0.254459951729729</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.140410609455994</v>
+        <v>-0.130809418465611</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.4000595493751051</v>
+        <v>0.4667965514040749</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1939836139480906</v>
+        <v>0.2131544283685764</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2781665054545144</v>
+        <v>0.278704864756385</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5961162517168991</v>
+        <v>0.6145998230257866</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.361809160631956</v>
+        <v>0.3843370119928488</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.174857184866549</v>
+        <v>0.1815425430667119</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.091994051207017</v>
+        <v>2.347489755131962</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.708060341928147</v>
+        <v>1.940979115099302</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.955193970720033</v>
+        <v>0.9195335413252961</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.725126289856687</v>
+        <v>2.890907807085445</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.342047900350485</v>
+        <v>2.330209436289681</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.205042135722872</v>
+        <v>2.174970502474199</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.9393112236541</v>
+        <v>1.968264042274612</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.621693689495425</v>
+        <v>1.612396188998796</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.126828183119357</v>
+        <v>1.15947404532618</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-4.945123192712307</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-6.07165239829367</v>
+        <v>-6.071652398293673</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.5635608495156319</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.311844854797427</v>
+        <v>-3.860800280516838</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.06363845728161</v>
+        <v>-11.27130241486642</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.88476041694759</v>
+        <v>-11.83854626013153</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.435441758837761</v>
+        <v>-6.173966860232558</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-9.465646454693301</v>
+        <v>-9.248777508731132</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-9.774645323360811</v>
+        <v>-9.77113403498416</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.803427785991786</v>
+        <v>-4.076198529828921</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.711083413945591</v>
+        <v>-8.950788721921757</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-9.522620062971351</v>
+        <v>-9.784741819056169</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.987767310452829</v>
+        <v>6.260491917421923</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.7365831826469016</v>
+        <v>-0.9552948251558353</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-2.759823011662601</v>
+        <v>-2.329160943514901</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.447224737842596</v>
+        <v>2.032066897262326</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.5401262235088634</v>
+        <v>-0.6337987426012799</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.591697107032108</v>
+        <v>-2.542263803085087</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.653037237244918</v>
+        <v>2.64990413388319</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.083370033540454</v>
+        <v>-2.278737036886637</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-3.837617238147715</v>
+        <v>-3.6901290975294</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.3238550957890857</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.3976312606216247</v>
+        <v>-0.397631260621625</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.03266375703272253</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1937472327247088</v>
+        <v>-0.1749964310545691</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.501024028345824</v>
+        <v>-0.5002014643136768</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5210206578014286</v>
+        <v>-0.5379219381435975</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3647861525486731</v>
+        <v>-0.3490966976873071</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5446235655330228</v>
+        <v>-0.5162043034836699</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5491576078998448</v>
+        <v>-0.543616862906895</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1952905722540089</v>
+        <v>-0.2128005360385244</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4542833319875181</v>
+        <v>-0.4680733530360365</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4923199491975914</v>
+        <v>-0.5041711034955351</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3560817437007991</v>
+        <v>0.3788766788201893</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.04090563765548594</v>
+        <v>-0.03542577463382922</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1403371945688467</v>
+        <v>-0.1394419601014324</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1843974909629715</v>
+        <v>0.1512009898688448</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03647972279694982</v>
+        <v>-0.0150888754998897</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1968540706604915</v>
+        <v>-0.1760131817756536</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1695282050997233</v>
+        <v>0.1689628888427427</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1293696488860291</v>
+        <v>-0.1428689192195884</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.2379150530606719</v>
+        <v>-0.2365076269910545</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-3.389138191064933</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2.176967512506248</v>
+        <v>2.176967512506253</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.9746913662000145</v>
@@ -2153,7 +2153,7 @@
         <v>-1.018630701177459</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-2.629849442144799</v>
+        <v>-2.629849442144802</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-0.8867568149589</v>
@@ -2162,7 +2162,7 @@
         <v>-2.101114168298313</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-0.196563741388589</v>
+        <v>-0.1965637413885918</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.661803789299973</v>
+        <v>-7.824556916418233</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-8.187470493878433</v>
+        <v>-7.910824408605549</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.60289229752198</v>
+        <v>-2.217280888744245</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.907093836981583</v>
+        <v>-3.285992727414828</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.108177868523277</v>
+        <v>-4.952008849690865</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.231548235522438</v>
+        <v>-6.20560579752174</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.250056233476913</v>
+        <v>-4.075008488261304</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-5.504704952681739</v>
+        <v>-4.916819006093054</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.205496727548784</v>
+        <v>-3.017784375663715</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.773652821423845</v>
+        <v>1.471903143807194</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.211744204861923</v>
+        <v>0.7255813507522905</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.998785325685721</v>
+        <v>6.545739686679881</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.367441459308941</v>
+        <v>4.79133411271305</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.933300416137695</v>
+        <v>3.076281012542715</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.695426607707254</v>
+        <v>0.9021084166739276</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.078019009337473</v>
+        <v>2.411053217214219</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.7486616909636779</v>
+        <v>1.09695740685672</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.860756657575269</v>
+        <v>2.902468182452019</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.1715240229017378</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1101761581914518</v>
+        <v>0.1101761581914521</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.06762216390810512</v>
@@ -2258,7 +2258,7 @@
         <v>-0.07067058827595588</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1824537655685575</v>
+        <v>-0.1824537655685577</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.05238853728201336</v>
@@ -2267,7 +2267,7 @@
         <v>-0.124131324488061</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.01161275190707772</v>
+        <v>-0.01161275190707788</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3462650354690001</v>
+        <v>-0.3443597527767197</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.363745828505367</v>
+        <v>-0.3561062860013274</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1133253390192522</v>
+        <v>-0.09809992427269187</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1806118551463015</v>
+        <v>-0.1981764490944899</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3066747565100084</v>
+        <v>-0.2909687190810882</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3669569569280687</v>
+        <v>-0.3666992235861116</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2224686893950262</v>
+        <v>-0.2172406114274522</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.290442167874078</v>
+        <v>-0.2667503884261822</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.164867965903234</v>
+        <v>-0.1620266487571582</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1082312235287593</v>
+        <v>0.09711853969739234</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.07141360238376297</v>
+        <v>0.04314053025615536</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3934051304354239</v>
+        <v>0.3722210649984275</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4360896264076234</v>
+        <v>0.3944024418019768</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2522196046070407</v>
+        <v>0.2587968881549518</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.05582072768742075</v>
+        <v>0.08818197974953065</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1326560683395645</v>
+        <v>0.1522386363520188</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.05176647011516607</v>
+        <v>0.07112274244474391</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1899366598133044</v>
+        <v>0.1889104858377793</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-2.093417620916751</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-3.581397609873749</v>
+        <v>-3.581397609873746</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>2.859110675924617</v>
@@ -2367,7 +2367,7 @@
         <v>-1.661376241236531</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-3.181817647550869</v>
+        <v>-3.18181764755087</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.818526200981129</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.441837664380575</v>
+        <v>2.526283798424032</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.196270178036466</v>
+        <v>-4.239578332941632</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.656659695572927</v>
+        <v>-5.649228821145976</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.8300133387835645</v>
+        <v>0.9323184346433816</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-3.626891876020676</v>
+        <v>-3.381292894898273</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-4.859826133827525</v>
+        <v>-4.832171335167642</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.450765240444357</v>
+        <v>2.258969985263638</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.202769805933356</v>
+        <v>-3.20028011311105</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-4.615165249552811</v>
+        <v>-4.643120880567579</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>6.987389910459092</v>
+        <v>7.04373214739018</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.1145138160191904</v>
+        <v>0.284727641661327</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.545697884628664</v>
+        <v>-1.267650113236189</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.897305571107363</v>
+        <v>4.707446834652216</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.1747080536926164</v>
+        <v>0.1306963203496677</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-1.655397088482176</v>
+        <v>-1.569512170775431</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.408143647270076</v>
+        <v>5.22333300499288</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.3470880871527883</v>
+        <v>-0.4949640655596172</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-2.068966881775086</v>
+        <v>-2.140419329854997</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.1049392961046667</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.179529082250919</v>
+        <v>-0.1795290822509189</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.1946690721652251</v>
@@ -2472,7 +2472,7 @@
         <v>-0.1131185910787708</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.2166413124414488</v>
+        <v>-0.2166413124414489</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2223561497077017</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1136020457940066</v>
+        <v>0.1195050484597701</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1960247230186909</v>
+        <v>-0.2022811622549323</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2677131077173472</v>
+        <v>-0.2659235311998909</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.05121673589290109</v>
+        <v>0.05913733016580972</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2285764833394494</v>
+        <v>-0.2173796798696364</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.3054375841108202</v>
+        <v>-0.3030730398200419</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1400280046402493</v>
+        <v>0.1270862712442341</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.1776058188176548</v>
+        <v>-0.1796200079600967</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2574898488516553</v>
+        <v>-0.2587277149653288</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3694990074054292</v>
+        <v>0.380711657392839</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.007336043627512865</v>
+        <v>0.01367798984183652</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.08344099432221824</v>
+        <v>-0.06813059638238793</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3539136197046651</v>
+        <v>0.3423562259006121</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.01524725373676152</v>
+        <v>0.009889435073494582</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.1209342677450748</v>
+        <v>-0.1111817968700364</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3362245118551864</v>
+        <v>0.3196311344162525</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.02150115055390918</v>
+        <v>-0.02706880727059171</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.1272401069327515</v>
+        <v>-0.1301842705002764</v>
       </c>
     </row>
     <row r="58">
